--- a/meta/en/17-18-2.xlsx
+++ b/meta/en/17-18-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="Workbook________" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,19 +103,7 @@
     <t>17.18.2 Number of countries that have national statistical legislation that complies with the Fundamental Principles of Official Statistics</t>
   </si>
   <si>
-    <t>The National Statistical Committee of the Kyrgyz Republic (Statistics Organization and Coordination Unit)</t>
-  </si>
-  <si>
-    <t>G. B. Ermekbaeva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">germekbaeva@stat.kg </t>
-  </si>
-  <si>
     <t>(312) 62-56-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">www.stat.kg </t>
   </si>
   <si>
     <t>National statistical legislation: The statistics law defines rules, regulation, measures with regard to the organization, management, monitoring and inspection of the statistical activities in a systematic way, strength, effectiveness and efficiency to assure the full coverage, accuracy and consistency with facts in order to provide reference for policy direction, socio economic planning, and contribute to the country’s development to achieve wealth, culture, well-being and equity.
@@ -138,17 +126,45 @@
     <t> The Kyrgyz Republic SDG National Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io
  Link to the Kyrgyz Law on Official Statistics: http://www.stat.kg/ru/about/pravovye-osnovy-organov-gosudarstvennoj-statistiki/</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>Abdullaeva G.T.</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Strategic Planning and Business Process Optimization)</t>
+  </si>
+  <si>
+    <t>gabdullaeva@stat.kg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -223,30 +239,45 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -557,8 +588,8 @@
   <sheetPr codeName="Worksheet____1"/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +609,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>26</v>
       </c>
     </row>
@@ -608,24 +639,24 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
+      <c r="B8" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -633,7 +664,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +692,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,7 +754,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
